--- a/xlsx/广播 (大众媒体)_intext.xlsx
+++ b/xlsx/广播 (大众媒体)_intext.xlsx
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>傳播學</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_广播 (大众媒体)</t>
+    <t>传播学</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_广播 (大众媒体)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%AA%9E</t>
   </si>
   <si>
-    <t>口語</t>
+    <t>口语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8F%B0%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>電台廣播</t>
+    <t>电台广播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD_(%E7%B6%B2%E8%B7%AF)</t>
   </si>
   <si>
-    <t>廣播 (網路)</t>
+    <t>广播 (网路)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E6%92%AD%E5%AA%92%E4%BD%93</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E9%9F%B3</t>
   </si>
   <si>
-    <t>聲音</t>
+    <t>声音</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%83%8F</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A</t>
   </si>
   <si>
-    <t>資訊</t>
+    <t>资讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9C%BE</t>
   </si>
   <si>
-    <t>公眾</t>
+    <t>公众</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%AC%E4%BC%97</t>
@@ -95,37 +95,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E7%9C%BE</t>
   </si>
   <si>
-    <t>觀眾</t>
+    <t>观众</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%8F%B0</t>
   </si>
   <si>
-    <t>電視台</t>
+    <t>电视台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>電台</t>
+    <t>电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%A0%B4</t>
   </si>
   <si>
-    <t>商場</t>
+    <t>商场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%A0%A1</t>
   </si>
   <si>
-    <t>學校</t>
+    <t>学校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8A%E7%AB%99</t>
   </si>
   <si>
-    <t>車站</t>
+    <t>车站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB</t>
@@ -137,31 +137,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E9%81%B8%E8%A6%96%E8%A8%8A</t>
   </si>
   <si>
-    <t>隨選視訊</t>
+    <t>随选视讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
+    <t>汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓語</t>
+    <t>韩语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E8%AA%9E</t>
   </si>
   <si>
-    <t>臺語</t>
+    <t>台语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -179,25 +179,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E5%B9%85%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>調幅廣播</t>
+    <t>调幅广播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>聯播網</t>
+    <t>联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網路</t>
+    <t>网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E6%97%B6</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%8B%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
-    <t>地下電台</t>
+    <t>地下电台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%B9%BF%E6%92%AD</t>
@@ -221,19 +221,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E5%B7%A5%E7%A8%8B%E5%B8%AB%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>廣播工程師協會</t>
+    <t>广播工程师协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E7%96%8A%E5%8D%80</t>
   </si>
   <si>
-    <t>重疊區</t>
+    <t>重叠区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E4%BD%93</t>
